--- a/development/Hyperion-platforms_supported.xlsx
+++ b/development/Hyperion-platforms_supported.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>OS</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>18.04, 20.04&amp;#xB2;</t>
+  </si>
+  <si>
+    <t>[Linux-armv7l.deb](https://github.com/hyperion-project/hyperion.ng/releases)</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,7 +676,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +710,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
